--- a/hw2.xlsx
+++ b/hw2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valeriia Kravchik\OneDrive - Technion\Desktop\Machine Learning\HW\HW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/kra_valeriia_campus_technion_ac_il/Documents/Desktop/Machine Learning/HW/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2248F07D-89C9-4B6A-9B18-528C8867066E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{2248F07D-89C9-4B6A-9B18-528C8867066E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE76356D-FBA2-4FD5-9A0F-77A82AB8086A}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="1830" windowWidth="38700" windowHeight="15375" xr2:uid="{D09AFC38-7D61-4DFE-BECC-B46EF7E6DC24}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{D09AFC38-7D61-4DFE-BECC-B46EF7E6DC24}"/>
   </bookViews>
   <sheets>
     <sheet name="HW2_data" sheetId="2" r:id="rId1"/>
@@ -162,9 +162,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -254,26 +302,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{475763C0-0EBC-45A5-8B87-747865A5305A}" name="HW2_data" displayName="HW2_data" ref="A1:R566" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{475763C0-0EBC-45A5-8B87-747865A5305A}" name="HW2_data" displayName="HW2_data" ref="A1:R567" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:R566" xr:uid="{F0049CB9-F2FA-4857-A414-CC59B068BA5E}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{C20C5A4E-0E1C-4AE0-AB68-345F8F36C680}" uniqueName="1" name="Age" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{765658D9-5DDE-4211-89D6-75962EC59C0D}" uniqueName="2" name="Gender" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{469DD19E-CBB4-41DE-B183-3EEF02321755}" uniqueName="3" name="Increased Urination" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{21A819B4-6855-4E4D-95D0-AC60F17BFB50}" uniqueName="4" name="Increased Thirst" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{85632282-9759-4DA0-A73B-47474AA9EF60}" uniqueName="5" name="Sudden Weight Loss" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{2F1B093A-3A45-4170-AE0A-40FC0A63385B}" uniqueName="6" name="Weakness" queryTableFieldId="6" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F1891642-F87C-4D06-8D58-1795D14040AD}" uniqueName="7" name="Increased Hunger" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{94CD4DDB-0A6C-4A51-A373-3217C63BE3DD}" uniqueName="8" name="Genital Thrush" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{875AD93F-B470-4F16-937F-B389E9A2BE2E}" uniqueName="9" name="Visual Blurring" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{3AD7D12B-4F8B-410F-96CE-999515DF8FD2}" uniqueName="10" name="Itching" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{97523277-345E-4B21-AFA9-ACFCEFC41F0F}" uniqueName="11" name="Irritability" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{8B821FFD-8B02-4C5F-8418-4B097A02A7B2}" uniqueName="12" name="Delayed Healing" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{32CCAF89-9F1B-4C53-95CA-6D6C80F05DAF}" uniqueName="13" name="Partial Paresis" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{7DB00177-280D-4439-BE6C-D4EBA4EC1482}" uniqueName="14" name="Muscle Stiffness" queryTableFieldId="14" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{D3AB0FB2-11BC-4986-9466-D810BC83669A}" uniqueName="15" name="Hair Loss" queryTableFieldId="15" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{F7D71D62-19CC-4FFF-94FA-9611273CA062}" uniqueName="16" name="Obesity" queryTableFieldId="16" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{C1609837-C880-457A-B0BE-0E92C5EDDBD7}" uniqueName="17" name="Diagnosis" queryTableFieldId="17" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C20C5A4E-0E1C-4AE0-AB68-345F8F36C680}" uniqueName="1" name="Age" totalsRowFunction="custom" queryTableFieldId="1">
+      <totalsRowFormula>MIN(A2:A566)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{765658D9-5DDE-4211-89D6-75962EC59C0D}" uniqueName="2" name="Gender" queryTableFieldId="2" dataDxfId="31" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{469DD19E-CBB4-41DE-B183-3EEF02321755}" uniqueName="3" name="Increased Urination" queryTableFieldId="3" dataDxfId="30" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{21A819B4-6855-4E4D-95D0-AC60F17BFB50}" uniqueName="4" name="Increased Thirst" queryTableFieldId="4" dataDxfId="29" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{85632282-9759-4DA0-A73B-47474AA9EF60}" uniqueName="5" name="Sudden Weight Loss" queryTableFieldId="5" dataDxfId="28" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2F1B093A-3A45-4170-AE0A-40FC0A63385B}" uniqueName="6" name="Weakness" queryTableFieldId="6" dataDxfId="27" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F1891642-F87C-4D06-8D58-1795D14040AD}" uniqueName="7" name="Increased Hunger" queryTableFieldId="7" dataDxfId="26" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{94CD4DDB-0A6C-4A51-A373-3217C63BE3DD}" uniqueName="8" name="Genital Thrush" queryTableFieldId="8" dataDxfId="25" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{875AD93F-B470-4F16-937F-B389E9A2BE2E}" uniqueName="9" name="Visual Blurring" queryTableFieldId="9" dataDxfId="24" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{3AD7D12B-4F8B-410F-96CE-999515DF8FD2}" uniqueName="10" name="Itching" queryTableFieldId="10" dataDxfId="23" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{97523277-345E-4B21-AFA9-ACFCEFC41F0F}" uniqueName="11" name="Irritability" queryTableFieldId="11" dataDxfId="22" totalsRowDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{8B821FFD-8B02-4C5F-8418-4B097A02A7B2}" uniqueName="12" name="Delayed Healing" queryTableFieldId="12" dataDxfId="21" totalsRowDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{32CCAF89-9F1B-4C53-95CA-6D6C80F05DAF}" uniqueName="13" name="Partial Paresis" queryTableFieldId="13" dataDxfId="20" totalsRowDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{7DB00177-280D-4439-BE6C-D4EBA4EC1482}" uniqueName="14" name="Muscle Stiffness" queryTableFieldId="14" dataDxfId="19" totalsRowDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{D3AB0FB2-11BC-4986-9466-D810BC83669A}" uniqueName="15" name="Hair Loss" queryTableFieldId="15" dataDxfId="18" totalsRowDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{F7D71D62-19CC-4FFF-94FA-9611273CA062}" uniqueName="16" name="Obesity" queryTableFieldId="16" dataDxfId="17" totalsRowDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{C1609837-C880-457A-B0BE-0E92C5EDDBD7}" uniqueName="17" name="Diagnosis" queryTableFieldId="17" dataDxfId="16" totalsRowDxfId="0"/>
     <tableColumn id="18" xr3:uid="{43BAE9F1-AACD-4ECA-A6FB-FB9C23D4CD0F}" uniqueName="18" name="Family History" queryTableFieldId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -281,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C87B23-5AFC-483C-A40D-555D1FDE3382}">
-  <dimension ref="A1:R566"/>
+  <dimension ref="A1:R570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32299,6 +32349,46 @@
       </c>
       <c r="R566">
         <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <f>MIN(A2:A566)</f>
+        <v>16</v>
+      </c>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
+      <c r="E567" s="1"/>
+      <c r="F567" s="1"/>
+      <c r="G567" s="1"/>
+      <c r="H567" s="1"/>
+      <c r="I567" s="1"/>
+      <c r="J567" s="1"/>
+      <c r="K567" s="1"/>
+      <c r="L567" s="1"/>
+      <c r="M567" s="1"/>
+      <c r="N567" s="1"/>
+      <c r="O567" s="1"/>
+      <c r="P567" s="1"/>
+      <c r="Q567" s="1"/>
+    </row>
+    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <f>MAX(A2:A566)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <f>A568-HW2_data[[#Totals],[Age]]</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <f>A569+17</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
